--- a/data/fakecsv/dept_AIRBNB.xlsx
+++ b/data/fakecsv/dept_AIRBNB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="103">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,268 +40,262 @@
     <t>AIRBNB</t>
   </si>
   <si>
-    <t>MV5X4F4R4JWJLANPU</t>
-  </si>
-  <si>
-    <t>V62CAZE220A3EZNKV</t>
-  </si>
-  <si>
-    <t>828YX31P328V3HD70</t>
-  </si>
-  <si>
-    <t>MB5CJFAK3EM4WHG4V</t>
-  </si>
-  <si>
-    <t>1E6GFC960VH8GT9YE</t>
-  </si>
-  <si>
-    <t>Y97CNW3HXEHHVFEUT</t>
-  </si>
-  <si>
-    <t>E4ERGYMU0XECWE9XE</t>
-  </si>
-  <si>
-    <t>KL2PKYNS3BZVGWWYD</t>
-  </si>
-  <si>
-    <t>A0UL8E9E5PCEZYHMW</t>
-  </si>
-  <si>
-    <t>ZPBKELJC19ML9EW62</t>
-  </si>
-  <si>
-    <t>88RJCPEF61BLUNC94</t>
-  </si>
-  <si>
-    <t>996EXNZ59DLMMY4RA</t>
-  </si>
-  <si>
-    <t>BDDMZ84M1BGKA7NWW</t>
-  </si>
-  <si>
-    <t>17ALDNPC5MTJGWWS1</t>
-  </si>
-  <si>
-    <t>F814XH490YNF351SU</t>
-  </si>
-  <si>
-    <t>Z7DEXDYL9VLDYSB2A</t>
-  </si>
-  <si>
-    <t>4M7GGGJV5UMJJUWSE</t>
-  </si>
-  <si>
-    <t>RBXTA6MK9KY75EAZC</t>
-  </si>
-  <si>
-    <t>XND11UHC1231XSXPN</t>
-  </si>
-  <si>
-    <t>CX08S8A10RNNBFY75</t>
-  </si>
-  <si>
-    <t>1F9LFJ9Z6XJ70V52E</t>
-  </si>
-  <si>
-    <t>YGEFG9KX32ZWB1J6P</t>
-  </si>
-  <si>
-    <t>1S1173U0336KFFJMR</t>
-  </si>
-  <si>
-    <t>3KPB393B61NUZP1RL</t>
-  </si>
-  <si>
-    <t>B7JC7WR273KLPWDGY</t>
-  </si>
-  <si>
-    <t>R2ENE6BK7GC3X1PGR</t>
-  </si>
-  <si>
-    <t>7LEVUYES3R1Y7E8BA</t>
-  </si>
-  <si>
-    <t>LY5HDHKW8ENC1WBDE</t>
-  </si>
-  <si>
-    <t>SKWNPV6H57BDAS2BH</t>
-  </si>
-  <si>
-    <t>0UMYD48U0LRJ1MXBE</t>
-  </si>
-  <si>
-    <t>YCSTL4MJ42HTV0JHU</t>
-  </si>
-  <si>
-    <t>7ME07LMS04BHTWVWW</t>
-  </si>
-  <si>
-    <t>MYCTH0RB6YPB8F1SX</t>
-  </si>
-  <si>
-    <t>09Z45AFH3C49C2X77</t>
-  </si>
-  <si>
-    <t>P0XH92ZM4U4S9K02V</t>
-  </si>
-  <si>
-    <t>KKUEH8J28M245UJB4</t>
-  </si>
-  <si>
-    <t>ZD19UZTV64DTAWJWY</t>
-  </si>
-  <si>
-    <t>ET4HKSPM0P87HWXL0</t>
-  </si>
-  <si>
-    <t>0A4ESPGC2RE5KZPE1</t>
-  </si>
-  <si>
-    <t>FW4H93M46PB8CD9EU</t>
-  </si>
-  <si>
-    <t>C4AFZ9N13T35ZJT4B</t>
-  </si>
-  <si>
-    <t>1496W0BU4G3M8H9FE</t>
-  </si>
-  <si>
-    <t>5ZUNA1FD63WYE2CAY</t>
-  </si>
-  <si>
-    <t>Y3N2BECD4VDS3U496</t>
-  </si>
-  <si>
-    <t>Duane Miller</t>
-  </si>
-  <si>
-    <t>Jacob Wolf</t>
-  </si>
-  <si>
-    <t>Kelly Kline</t>
-  </si>
-  <si>
-    <t>Gary Mason</t>
-  </si>
-  <si>
-    <t>Jim Miller</t>
-  </si>
-  <si>
-    <t>Courtney Garcia</t>
-  </si>
-  <si>
-    <t>Eric Watson</t>
-  </si>
-  <si>
-    <t>Luis Gonzalez</t>
-  </si>
-  <si>
-    <t>Kendra Haney</t>
-  </si>
-  <si>
-    <t>Andrea Velazquez</t>
-  </si>
-  <si>
-    <t>Justin Chavez</t>
-  </si>
-  <si>
-    <t>Jenny Baker</t>
-  </si>
-  <si>
-    <t>Jason Kim</t>
-  </si>
-  <si>
-    <t>Charles Chase</t>
-  </si>
-  <si>
-    <t>Elizabeth Salazar</t>
-  </si>
-  <si>
-    <t>Theresa Roberts</t>
-  </si>
-  <si>
-    <t>Philip Garcia Jr.</t>
-  </si>
-  <si>
-    <t>Dana Walton</t>
-  </si>
-  <si>
-    <t>Matthew Day</t>
-  </si>
-  <si>
-    <t>Julie Chapman</t>
-  </si>
-  <si>
-    <t>Gwendolyn Martin</t>
-  </si>
-  <si>
-    <t>Christopher Martin</t>
-  </si>
-  <si>
-    <t>Michelle Mcintyre</t>
-  </si>
-  <si>
-    <t>Kimberly Simpson</t>
-  </si>
-  <si>
-    <t>Corey Taylor</t>
-  </si>
-  <si>
-    <t>Mary Horn</t>
-  </si>
-  <si>
-    <t>Kyle Floyd</t>
-  </si>
-  <si>
-    <t>Eric Fletcher</t>
-  </si>
-  <si>
-    <t>Billy Li</t>
-  </si>
-  <si>
-    <t>Tamara West</t>
-  </si>
-  <si>
-    <t>Mr. Aaron Perry MD</t>
-  </si>
-  <si>
-    <t>Roger Hill</t>
-  </si>
-  <si>
-    <t>Timothy Shaw</t>
-  </si>
-  <si>
-    <t>Joseph Russell</t>
-  </si>
-  <si>
-    <t>Ashley Whitney</t>
-  </si>
-  <si>
-    <t>Dr. Hannah Marshall MD</t>
-  </si>
-  <si>
-    <t>Stacey Hughes</t>
-  </si>
-  <si>
-    <t>Timothy Brown</t>
-  </si>
-  <si>
-    <t>Brittany Avery</t>
-  </si>
-  <si>
-    <t>Aaron Serrano</t>
-  </si>
-  <si>
-    <t>Kathryn Mitchell</t>
-  </si>
-  <si>
-    <t>Yolanda Singh</t>
-  </si>
-  <si>
-    <t>Jennifer Santos</t>
-  </si>
-  <si>
-    <t>Jamie Barnes</t>
+    <t>E1SETPGF331EVD8HV</t>
+  </si>
+  <si>
+    <t>CWW63U207AKKJPVRL</t>
+  </si>
+  <si>
+    <t>RFB1VL4ZXJ3Y1P9M7</t>
+  </si>
+  <si>
+    <t>KJ7WCXWD2HFF5V3WS</t>
+  </si>
+  <si>
+    <t>CCYG9CEJ07Y69KTCS</t>
+  </si>
+  <si>
+    <t>3A3AC9TU8WV8GN40N</t>
+  </si>
+  <si>
+    <t>JVBVFUPD7Y8S65E6C</t>
+  </si>
+  <si>
+    <t>B8J3VN0U0F53FWGZG</t>
+  </si>
+  <si>
+    <t>279DKADT9RK3J3C28</t>
+  </si>
+  <si>
+    <t>2ZH9MAG3X6PH2N5EE</t>
+  </si>
+  <si>
+    <t>CZJUT9TN96S2ANJZZ</t>
+  </si>
+  <si>
+    <t>B8D12HHP51F55B9GB</t>
+  </si>
+  <si>
+    <t>2VN5D1T68JMM4RMCC</t>
+  </si>
+  <si>
+    <t>KACLE7CZ0L10AKFJS</t>
+  </si>
+  <si>
+    <t>TYKPTHFR77YH69CUK</t>
+  </si>
+  <si>
+    <t>FSM87KER8GKFBSF2B</t>
+  </si>
+  <si>
+    <t>YSMLHZ0B4PZLM44RH</t>
+  </si>
+  <si>
+    <t>SSHZ8DTY89JFJTLPN</t>
+  </si>
+  <si>
+    <t>0SHAD5L25XL6T2J1X</t>
+  </si>
+  <si>
+    <t>D2EU29P46KV1HW312</t>
+  </si>
+  <si>
+    <t>B6BRC0LM2ASYWHX7M</t>
+  </si>
+  <si>
+    <t>2WXKMD4B4B8FR8G1Z</t>
+  </si>
+  <si>
+    <t>UZ498Y4097JSNZ4KT</t>
+  </si>
+  <si>
+    <t>WTMWNEWG4B8AMYWPT</t>
+  </si>
+  <si>
+    <t>SX7LJYPE6ZE3XV0SC</t>
+  </si>
+  <si>
+    <t>J1L74VEV0XFGPK8YJ</t>
+  </si>
+  <si>
+    <t>JT13LJZ43UXR0SEVV</t>
+  </si>
+  <si>
+    <t>53RGF9KH8ZDDV0KXR</t>
+  </si>
+  <si>
+    <t>GPL3Y907297FRPPAM</t>
+  </si>
+  <si>
+    <t>8L7JHJ9J8T6EHZZSM</t>
+  </si>
+  <si>
+    <t>T32P1S1T8AA5S6D6N</t>
+  </si>
+  <si>
+    <t>UAHXFRCLXVFG32Y34</t>
+  </si>
+  <si>
+    <t>20MSPAWUXWVLR63VP</t>
+  </si>
+  <si>
+    <t>ZZS9SR114WT8XH0VZ</t>
+  </si>
+  <si>
+    <t>YYYJK7EW7TFK0LRKR</t>
+  </si>
+  <si>
+    <t>HRX7EEMY7HDV6943R</t>
+  </si>
+  <si>
+    <t>RPTSSKNB8HKCVT3GJ</t>
+  </si>
+  <si>
+    <t>GDKMTP0R3TYJ15GVE</t>
+  </si>
+  <si>
+    <t>8BTXUU2R0HAGMZU8S</t>
+  </si>
+  <si>
+    <t>RZB4P0KRXR21XUTXC</t>
+  </si>
+  <si>
+    <t>EWXZN5AV2DYRZPCRH</t>
+  </si>
+  <si>
+    <t>CXYVVKYX4KF1HNY1Y</t>
+  </si>
+  <si>
+    <t>6JDRJ0TM7YM0PGFZU</t>
+  </si>
+  <si>
+    <t>Veronica Edwards DDS</t>
+  </si>
+  <si>
+    <t>Candice Ross</t>
+  </si>
+  <si>
+    <t>Carla Copeland</t>
+  </si>
+  <si>
+    <t>Joshua Olson</t>
+  </si>
+  <si>
+    <t>Lisa Petersen</t>
+  </si>
+  <si>
+    <t>Edward Parks</t>
+  </si>
+  <si>
+    <t>Philip Smith</t>
+  </si>
+  <si>
+    <t>Mrs. Mary Gill</t>
+  </si>
+  <si>
+    <t>Ashlee Gray DDS</t>
+  </si>
+  <si>
+    <t>Debra Nelson</t>
+  </si>
+  <si>
+    <t>Cindy Mcconnell</t>
+  </si>
+  <si>
+    <t>Melissa Howard</t>
+  </si>
+  <si>
+    <t>Gregory Williams</t>
+  </si>
+  <si>
+    <t>Jennifer Bell</t>
+  </si>
+  <si>
+    <t>Alice Mills</t>
+  </si>
+  <si>
+    <t>Robert Guerrero</t>
+  </si>
+  <si>
+    <t>Andrew Rosario</t>
+  </si>
+  <si>
+    <t>Mr. Randy Riley</t>
+  </si>
+  <si>
+    <t>Vanessa Irwin</t>
+  </si>
+  <si>
+    <t>Nichole Atkinson</t>
+  </si>
+  <si>
+    <t>Alexis Howell</t>
+  </si>
+  <si>
+    <t>Nancy Grant</t>
+  </si>
+  <si>
+    <t>Daniel Ford</t>
+  </si>
+  <si>
+    <t>Patty Henderson</t>
+  </si>
+  <si>
+    <t>Kristin Quinn</t>
+  </si>
+  <si>
+    <t>Billy Adams</t>
+  </si>
+  <si>
+    <t>Christopher Manning</t>
+  </si>
+  <si>
+    <t>Stacy Johnson</t>
+  </si>
+  <si>
+    <t>Dennis Bradley</t>
+  </si>
+  <si>
+    <t>Jessica Brown</t>
+  </si>
+  <si>
+    <t>Laurie Moses</t>
+  </si>
+  <si>
+    <t>Mary Butler</t>
+  </si>
+  <si>
+    <t>Sierra Martinez</t>
+  </si>
+  <si>
+    <t>Paul Hicks</t>
+  </si>
+  <si>
+    <t>Lauren Hobbs</t>
+  </si>
+  <si>
+    <t>Carol Thomas</t>
+  </si>
+  <si>
+    <t>Cheryl Tran</t>
+  </si>
+  <si>
+    <t>David Jones</t>
+  </si>
+  <si>
+    <t>Marissa Moore</t>
+  </si>
+  <si>
+    <t>Molly Gallegos</t>
+  </si>
+  <si>
+    <t>Ashley Barnes</t>
+  </si>
+  <si>
+    <t>Sabrina Delgado</t>
+  </si>
+  <si>
+    <t>Sydney King</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -686,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,10 +717,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -740,10 +734,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -757,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -774,10 +768,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -788,13 +782,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -808,10 +802,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -825,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -842,10 +836,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -859,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -873,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -893,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -910,10 +904,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -927,10 +921,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -944,10 +938,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -961,10 +955,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -975,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -992,13 +986,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1009,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1026,13 +1020,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1043,13 +1037,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1060,13 +1054,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1077,13 +1071,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1094,13 +1088,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1111,13 +1105,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1128,13 +1122,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1145,13 +1139,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1162,13 +1156,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1179,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1196,13 +1190,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1213,13 +1207,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1230,13 +1224,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1247,13 +1241,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,13 +1258,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,13 +1275,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1315,13 +1309,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,13 +1326,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1349,13 +1343,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1366,13 +1360,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1383,13 +1377,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1400,13 +1394,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1417,13 +1411,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1434,13 +1428,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1451,13 +1445,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1468,13 +1462,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1485,13 +1479,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1502,13 +1496,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1519,13 +1513,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1536,13 +1530,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
         <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1553,13 +1547,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1570,13 +1564,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1587,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>63</v>
@@ -1604,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>63</v>
@@ -1621,13 +1615,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1638,13 +1632,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1655,13 +1649,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1672,13 +1666,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1689,13 +1683,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1706,13 +1700,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1723,13 +1717,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1740,13 +1734,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1757,13 +1751,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1774,13 +1768,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1791,13 +1785,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1808,13 +1802,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1825,13 +1819,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1842,13 +1836,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1859,13 +1853,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1876,13 +1870,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1893,13 +1887,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1910,13 +1904,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1927,13 +1921,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1944,13 +1938,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1961,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1978,13 +1972,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1995,13 +1989,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2012,13 +2006,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2029,13 +2023,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2046,13 +2040,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2063,13 +2057,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2080,13 +2074,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2097,13 +2091,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2114,13 +2108,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2131,13 +2125,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2148,13 +2142,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2165,13 +2159,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2182,13 +2176,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2199,13 +2193,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2216,13 +2210,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2233,13 +2227,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2250,13 +2244,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2267,10 +2261,10 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E93" t="s">
         <v>96</v>
@@ -2284,13 +2278,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2301,13 +2295,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2318,10 +2312,10 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E96" t="s">
         <v>96</v>
@@ -2335,10 +2329,10 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
@@ -2352,10 +2346,10 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E98" t="s">
         <v>98</v>
@@ -2369,10 +2363,10 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
         <v>99</v>
@@ -2386,13 +2380,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2403,13 +2397,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2420,13 +2414,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2437,13 +2431,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E103" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2454,13 +2448,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2471,13 +2465,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2488,13 +2482,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2505,13 +2499,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E107" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2522,13 +2516,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2539,13 +2533,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2556,13 +2550,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2573,13 +2567,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2590,13 +2584,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E112" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2607,13 +2601,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D113" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E113" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2624,13 +2618,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D114" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E114" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2641,13 +2635,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E115" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2658,13 +2652,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D116" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2675,13 +2669,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E117" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2692,13 +2686,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E118" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2709,13 +2703,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E119" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2726,13 +2720,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E120" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2743,13 +2737,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E121" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2760,13 +2754,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2777,13 +2771,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2794,13 +2788,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2811,13 +2805,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E125" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2828,13 +2822,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2845,10 +2839,10 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E127" t="s">
         <v>96</v>
@@ -2862,13 +2856,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2879,13 +2873,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E129" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2896,13 +2890,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2913,13 +2907,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D131" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E131" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2930,13 +2924,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2947,13 +2941,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2964,13 +2958,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E134" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2981,13 +2975,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2998,13 +2992,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E136" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3015,13 +3009,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3032,13 +3026,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3049,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E139" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3066,13 +3060,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3083,13 +3077,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3100,13 +3094,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E142" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3117,13 +3111,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E143" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3134,13 +3128,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D144" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E144" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3151,13 +3145,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E145" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3168,13 +3162,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D146" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E146" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3185,13 +3179,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E147" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3202,13 +3196,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E148" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3219,13 +3213,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E149" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3236,13 +3230,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D150" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E150" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3253,13 +3247,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E151" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3270,13 +3264,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E152" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3287,13 +3281,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E153" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3304,13 +3298,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E154" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3321,13 +3315,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D155" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E155" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3338,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D156" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E156" t="s">
         <v>96</v>
@@ -3355,10 +3349,10 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D157" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E157" t="s">
         <v>97</v>
@@ -3372,10 +3366,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E158" t="s">
         <v>98</v>
@@ -3389,13 +3383,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3406,13 +3400,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D160" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E160" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3423,10 +3417,10 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D161" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E161" t="s">
         <v>96</v>
@@ -3440,10 +3434,10 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E162" t="s">
         <v>97</v>
@@ -3457,10 +3451,10 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D163" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E163" t="s">
         <v>98</v>
@@ -3474,10 +3468,10 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D164" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E164" t="s">
         <v>99</v>
@@ -3491,13 +3485,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D165" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E165" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3508,13 +3502,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D166" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E166" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3525,13 +3519,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E167" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3542,13 +3536,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E168" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3559,13 +3553,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E169" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3576,13 +3570,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E170" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3593,13 +3587,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D171" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E171" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3610,13 +3604,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D172" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E172" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3627,13 +3621,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E173" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3644,13 +3638,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D174" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E174" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3661,13 +3655,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D175" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E175" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3678,13 +3672,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D176" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E176" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3695,13 +3689,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E177" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3712,13 +3706,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E178" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3729,13 +3723,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D179" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E179" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3746,13 +3740,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D180" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E180" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3763,10 +3757,10 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D181" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E181" t="s">
         <v>96</v>
@@ -3780,10 +3774,10 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D182" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E182" t="s">
         <v>97</v>
@@ -3797,13 +3791,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D183" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E183" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3814,13 +3808,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E184" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3831,13 +3825,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D185" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E185" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3848,13 +3842,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D186" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E186" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3865,13 +3859,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D187" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E187" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3882,13 +3876,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D188" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E188" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3899,13 +3893,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E189" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3916,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E190" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3933,13 +3927,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D191" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E191" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3950,13 +3944,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D192" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E192" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3967,13 +3961,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D193" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E193" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3984,13 +3978,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D194" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E194" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4001,13 +3995,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E195" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4018,13 +4012,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E196" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4035,13 +4029,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D197" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E197" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4052,489 +4046,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D198" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E198" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" t="s">
-        <v>48</v>
-      </c>
-      <c r="D199" t="s">
-        <v>92</v>
-      </c>
-      <c r="E199" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" t="s">
-        <v>48</v>
-      </c>
-      <c r="D200" t="s">
-        <v>92</v>
-      </c>
-      <c r="E200" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" t="s">
-        <v>48</v>
-      </c>
-      <c r="D201" t="s">
-        <v>92</v>
-      </c>
-      <c r="E201" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>49</v>
-      </c>
-      <c r="D202" t="s">
-        <v>93</v>
-      </c>
-      <c r="E202" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" t="s">
-        <v>49</v>
-      </c>
-      <c r="D203" t="s">
-        <v>93</v>
-      </c>
-      <c r="E203" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" t="s">
-        <v>49</v>
-      </c>
-      <c r="D204" t="s">
-        <v>93</v>
-      </c>
-      <c r="E204" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" t="s">
-        <v>49</v>
-      </c>
-      <c r="D205" t="s">
-        <v>93</v>
-      </c>
-      <c r="E205" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s">
-        <v>49</v>
-      </c>
-      <c r="D206" t="s">
-        <v>93</v>
-      </c>
-      <c r="E206" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>49</v>
-      </c>
-      <c r="D207" t="s">
-        <v>93</v>
-      </c>
-      <c r="E207" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>49</v>
-      </c>
-      <c r="D208" t="s">
-        <v>93</v>
-      </c>
-      <c r="E208" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>49</v>
-      </c>
-      <c r="D209" t="s">
-        <v>93</v>
-      </c>
-      <c r="E209" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" t="s">
-        <v>49</v>
-      </c>
-      <c r="D210" t="s">
-        <v>93</v>
-      </c>
-      <c r="E210" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>50</v>
-      </c>
-      <c r="D211" t="s">
-        <v>94</v>
-      </c>
-      <c r="E211" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
-        <v>50</v>
-      </c>
-      <c r="D212" t="s">
-        <v>94</v>
-      </c>
-      <c r="E212" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>50</v>
-      </c>
-      <c r="D213" t="s">
-        <v>94</v>
-      </c>
-      <c r="E213" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>50</v>
-      </c>
-      <c r="D214" t="s">
-        <v>94</v>
-      </c>
-      <c r="E214" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>50</v>
-      </c>
-      <c r="D215" t="s">
-        <v>94</v>
-      </c>
-      <c r="E215" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>50</v>
-      </c>
-      <c r="D216" t="s">
-        <v>94</v>
-      </c>
-      <c r="E216" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>50</v>
-      </c>
-      <c r="D217" t="s">
-        <v>94</v>
-      </c>
-      <c r="E217" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>51</v>
-      </c>
-      <c r="D218" t="s">
-        <v>95</v>
-      </c>
-      <c r="E218" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>51</v>
-      </c>
-      <c r="D219" t="s">
-        <v>95</v>
-      </c>
-      <c r="E219" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>51</v>
-      </c>
-      <c r="D220" t="s">
-        <v>95</v>
-      </c>
-      <c r="E220" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>51</v>
-      </c>
-      <c r="D221" t="s">
-        <v>95</v>
-      </c>
-      <c r="E221" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>51</v>
-      </c>
-      <c r="D222" t="s">
-        <v>95</v>
-      </c>
-      <c r="E222" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
-        <v>51</v>
-      </c>
-      <c r="D223" t="s">
-        <v>95</v>
-      </c>
-      <c r="E223" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>51</v>
-      </c>
-      <c r="D224" t="s">
-        <v>95</v>
-      </c>
-      <c r="E224" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225" t="s">
-        <v>51</v>
-      </c>
-      <c r="D225" t="s">
-        <v>95</v>
-      </c>
-      <c r="E225" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" t="s">
-        <v>51</v>
-      </c>
-      <c r="D226" t="s">
-        <v>95</v>
-      </c>
-      <c r="E226" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
